--- a/product_data/supporting_information/Metadata/EXPOCODE_metadata.xlsx
+++ b/product_data/supporting_information/Metadata/EXPOCODE_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/supporting_information/Metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFC6FC85-2397-45B7-9B64-07E227C9A9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{CFC6FC85-2397-45B7-9B64-07E227C9A9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88AA65BA-66D6-4270-AEF7-EDAC658F8134}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CAC26201-7EA0-4927-9F08-359D20184F1A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CAC26201-7EA0-4927-9F08-359D20184F1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="805">
   <si>
     <t>EXPOCODE</t>
   </si>
@@ -235,9 +235,6 @@
   </si>
   <si>
     <t>09SS20130704</t>
-  </si>
-  <si>
-    <t>320619930325</t>
   </si>
   <si>
     <t xml:space="preserve">320619961002    </t>
@@ -2814,12 +2811,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D35B94-FD96-48A2-AA8B-4A61A851D8AF}">
   <dimension ref="A1:L219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.453125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2834,28 +2832,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="K1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="L1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2863,31 +2861,31 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C2">
         <v>19850305</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="L2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2895,28 +2893,28 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C3">
         <v>19860917</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2924,28 +2922,28 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C4">
         <v>19880109</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="K4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2953,31 +2951,31 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C5">
         <v>19921129</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="L5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2985,31 +2983,31 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C6">
         <v>20011203</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="L6" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -3017,31 +3015,31 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C7">
         <v>20040325</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="K7" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -3049,31 +3047,31 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C8">
         <v>20080204</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="K8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -3081,31 +3079,31 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C9">
         <v>20080520</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -3113,31 +3111,31 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C10">
         <v>20100405</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3145,31 +3143,31 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C11">
         <v>20100517</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K11" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3177,34 +3175,34 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C12">
         <v>20120311</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J12" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K12" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="L12" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -3212,34 +3210,34 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C13">
         <v>20131016</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J13" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K13" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="L13" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3247,31 +3245,31 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14">
         <v>20170203</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I14" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J14" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K14" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -3279,34 +3277,34 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C15">
         <v>20190207</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I15" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="J15" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K15" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="L15" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -3314,34 +3312,34 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C16">
         <v>20150329</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I16" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J16" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="K16" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="L16" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -3349,34 +3347,34 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C17">
         <v>20160227</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I17" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="J17" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="K17" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="L17" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -3384,34 +3382,34 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C18">
         <v>20160416</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="J18" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="K18" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="L18" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -3419,31 +3417,31 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C19">
         <v>20160729</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I19" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="J19" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="K19" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -3451,34 +3449,34 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20">
         <v>20180221</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G20" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I20" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="J20" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="K20" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="L20" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -3486,31 +3484,31 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C21">
         <v>19910319</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H21" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I21" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="J21" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K21" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -3518,31 +3516,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C22">
         <v>19911027</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H22" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I22" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J22" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="K22" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -3550,22 +3548,22 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C23">
         <v>19920103</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J23" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="K23" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -3573,28 +3571,28 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C24">
         <v>19930309</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H24" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I24" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="J24" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="K24" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -3602,31 +3600,31 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C25">
         <v>19930509</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E25" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G25" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H25" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I25" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="J25" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="K25" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -3634,25 +3632,25 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C26">
         <v>19931228</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E26" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J26" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K26" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -3660,31 +3658,31 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C27">
         <v>19940301</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E27" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G27" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H27" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I27" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J27" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="K27" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -3692,31 +3690,31 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C28">
         <v>19950202</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G28" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H28" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I28" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="K28" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -3724,31 +3722,31 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C29">
         <v>19950902</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G29" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H29" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I29" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J29" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K29" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -3756,31 +3754,31 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C30">
         <v>19960331</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E30" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G30" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H30" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I30" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J30" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="K30" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3788,28 +3786,28 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31">
         <v>19980401</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H31" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I31" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J31" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="K31" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3817,31 +3815,31 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C32">
         <v>19990907</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E32" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G32" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H32" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I32" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J32" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K32" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -3849,28 +3847,28 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C33">
         <v>20010309</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E33" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H33" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I33" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K33" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3878,31 +3876,31 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C34">
         <v>20011213</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E34" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G34" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H34" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I34" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J34" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K34" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3910,19 +3908,19 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C35">
         <v>20020308</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E35" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H35" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -3930,28 +3928,28 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C36">
         <v>20030317</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G36" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H36" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I36" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J36" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K36" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -3959,31 +3957,31 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C37">
         <v>20040213</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E37" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G37" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H37" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I37" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K37" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -3991,25 +3989,25 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C38">
         <v>20041114</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E38" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H38" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J38" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K38" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -4017,19 +4015,19 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C39">
         <v>20050217</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E39" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H39" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -4037,28 +4035,28 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C40">
         <v>20060312</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G40" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H40" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I40" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J40" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K40" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -4066,28 +4064,28 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C41">
         <v>20070220</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G41" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H41" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I41" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J41" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K41" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -4095,19 +4093,19 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C42">
         <v>20080127</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E42" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H42" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -4115,31 +4113,31 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C43">
         <v>20080420</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E43" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G43" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H43" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I43" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J43" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K43" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -4147,19 +4145,19 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C44">
         <v>20110206</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E44" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H44" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -4167,19 +4165,19 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C45">
         <v>20120212</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E45" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H45" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -4187,31 +4185,31 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C46">
         <v>20160312</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E46" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G46" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H46" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I46" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J46" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K46" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -4219,25 +4217,25 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C47" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G47" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H47" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I47" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K47" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -4245,28 +4243,28 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C48">
         <v>19950202</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E48" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G48" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H48" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I48" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K48" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -4274,31 +4272,31 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C49">
         <v>19951207</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E49" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G49" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H49" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I49" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J49" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K49" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -4306,31 +4304,31 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C50">
         <v>19960512</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E50" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G50" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H50" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I50" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J50" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K50" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -4338,31 +4336,31 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C51">
         <v>19960527</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E51" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G51" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H51" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I51" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J51" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K51" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -4370,31 +4368,31 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C52">
         <v>19961219</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E52" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G52" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H52" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I52" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J52" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="K52" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -4402,25 +4400,25 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C53">
         <v>19990204</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E53" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G53" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H53" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K53" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -4428,28 +4426,28 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C54">
         <v>19990214</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E54" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H54" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I54" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J54" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="K54" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -4457,28 +4455,28 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C55">
         <v>20030830</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E55" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G55" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H55" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J55" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="K55" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -4486,31 +4484,31 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C56">
         <v>20040128</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E56" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G56" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H56" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I56" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J56" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="K56" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -4518,31 +4516,31 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C57">
         <v>20040806</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E57" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G57" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H57" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I57" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J57" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="K57" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -4550,31 +4548,31 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C58">
         <v>20050817</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E58" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G58" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H58" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I58" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J58" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="K58" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -4582,31 +4580,31 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C59">
         <v>20051214</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E59" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G59" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H59" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I59" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J59" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="K59" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -4614,31 +4612,31 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C60">
         <v>20060409</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E60" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G60" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H60" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I60" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J60" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="K60" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -4646,31 +4644,31 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C61">
         <v>20100809</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E61" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G61" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H61" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I61" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="J61" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="K61" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -4678,31 +4676,31 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C62">
         <v>20101031</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E62" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G62" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H62" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I62" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="J62" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="K62" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -4710,31 +4708,31 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C63">
         <v>20120905</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E63" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G63" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H63" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I63" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J63" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="K63" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -4742,31 +4740,31 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C64">
         <v>20120916</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E64" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G64" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H64" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I64" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J64" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="K64" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4774,2431 +4772,2431 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C65">
         <v>20130726</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E65" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G65" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H65" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I65" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="J65" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="K65" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" t="s">
-        <v>67</v>
+      <c r="A66">
+        <v>320619930325</v>
       </c>
       <c r="B66" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C66">
         <v>19930515</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E66" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G66" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H66" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I66" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K66" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C67">
         <v>19961108</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E67" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G67" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H67" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I67" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="J67" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K67" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="L67" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C68">
         <v>19970211</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E68" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G68" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H68" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I68" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J68" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K68" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="L68" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C69">
         <v>19970511</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E69" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G69" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H69" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I69" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J69" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K69" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="L69" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C70">
         <v>19971214</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E70" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G70" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H70" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I70" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="J70" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="K70" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L70" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C71" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E71" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G71" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H71" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I71" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="J71" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K71" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C72">
         <v>19990716</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E72" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H72" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I72" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C73">
         <v>20011026</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E73" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H73" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I73" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C74">
         <v>20060815</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E74" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G74" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H74" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I74" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="K74" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="L74" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C75">
         <v>20030222</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E75" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G75" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H75" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K75" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="L75" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C76">
         <v>20040101</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E76" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G76" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H76" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J76" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K76" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="L76" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C77">
         <v>20050215</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E77" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G77" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H77" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J77" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K77" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="L77" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C78">
         <v>20060202</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E78" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G78" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H78" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I78" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J78" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K78" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="L78" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C79">
         <v>20170120</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E79" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H79" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C80">
         <v>20160104</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E80" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G80" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H80" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C81">
         <v>20170614</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E81" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H81" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C82">
         <v>20170817</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E82" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H82" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C83">
         <v>20180514</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E83" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H83" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C84">
         <v>20140505</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E84" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H84" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C85">
         <v>20110423</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E85" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H85" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C86">
         <v>19960108</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E86" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H86" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C87">
         <v>19980110</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E87" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H87" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C88">
         <v>19980220</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E88" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H88" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I88" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K88" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="L88" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C89">
         <v>19990212</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E89" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G89" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H89" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I89" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K89" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L89" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C90">
         <v>20000201</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E90" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G90" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H90" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I90" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K90" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L90" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C91">
         <v>20010131</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E91" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G91" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H91" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I91" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K91" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L91" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C92">
         <v>20020201</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E92" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H92" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I92" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K92" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="L92" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C93">
         <v>20030208</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E93" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H93" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I93" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K93" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L93" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C94">
         <v>20040207</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E94" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H94" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I94" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K94" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L94" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C95">
         <v>20040324</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E95" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H95" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K95" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="L95" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C96">
         <v>20050206</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E96" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H96" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I96" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K96" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L96" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C97">
         <v>20060209</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E97" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H97" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I97" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K97" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L97" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C98">
         <v>20070211</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E98" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G98" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H98" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I98" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K98" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L98" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C99">
         <v>20080209</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E99" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H99" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I99" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K99" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L99" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C100">
         <v>20090206</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E100" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H100" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I100" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K100" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L100" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="101" spans="1:12">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C101">
         <v>20100207</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E101" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H101" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I101" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K101" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="L101" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="102" spans="1:12">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C102">
         <v>20110107</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E102" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H102" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I102" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K102" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L102" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C103">
         <v>20120207</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E103" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H103" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I103" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K103" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L103" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C104">
         <v>20130207</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E104" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H104" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I104" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K104" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L104" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C105">
         <v>20140209</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H105" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I105" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K105" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L105" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C106">
         <v>20150208</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E106" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H106" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I106" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K106" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L106" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C107">
         <v>20160217</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E107" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H107" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I107" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K107" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L107" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="108" spans="1:12">
       <c r="A108" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C108">
         <v>20170210</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E108" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G108" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H108" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I108" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="J108" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="K108" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L108" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C109">
         <v>19911121</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E109" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H109" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I109" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K109" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L109" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C110">
         <v>19930208</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E110" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H110" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I110" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K110" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L110" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C111">
         <v>19930924</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E111" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H111" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I111" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K111" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L111" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C112">
         <v>19940207</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E112" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H112" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I112" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K112" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L112" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="113" spans="1:12">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C113">
         <v>19950208</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E113" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H113" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I113" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K113" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L113" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C114">
         <v>19960210</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E114" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H114" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I114" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K114" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L114" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C115">
         <v>19970213</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E115" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H115" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I115" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K115" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L115" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="116" spans="1:12">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C116">
         <v>19971124</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E116" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G116" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H116" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I116" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="K116" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="L116" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="117" spans="1:12">
       <c r="A117" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C117">
         <v>19980103</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E117" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H117" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I117" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K117" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="L117" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C118">
         <v>19980208</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E118" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H118" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I118" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K118" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="L118" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="119" spans="1:12">
       <c r="A119" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C119">
         <v>19980319</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E119" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H119" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I119" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K119" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="L119" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="120" spans="1:12">
       <c r="A120" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C120">
         <v>20020214</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E120" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G120" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H120" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I120" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="K120" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="L120" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="121" spans="1:12">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C121">
         <v>20050219</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E121" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H121" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="122" spans="1:12">
       <c r="A122" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C122">
         <v>20070317</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E122" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H122" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="123" spans="1:12">
       <c r="A123" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C123">
         <v>20080317</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E123" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G123" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H123" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I123" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J123" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="K123" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="L123" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="124" spans="1:12">
       <c r="A124" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C124">
         <v>20160306</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E124" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G124" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I124" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="J124" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K124" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C125">
         <v>20021104</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E125" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H125" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J125" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K125" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C126">
         <v>20030127</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E126" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H126" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J126" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K126" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="127" spans="1:12">
       <c r="A127" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C127">
         <v>20030304</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E127" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H127" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J127" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K127" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="128" spans="1:12">
       <c r="A128" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C128">
         <v>20031111</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E128" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H128" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J128" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K128" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C129">
         <v>20040101</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E129" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H129" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J129" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K129" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C130">
         <v>20040215</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E130" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H130" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J130" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K130" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C131">
         <v>20040304</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E131" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H131" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J131" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K131" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C132">
         <v>20041109</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E132" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H132" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J132" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K132" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C133">
         <v>20051108</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E133" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H133" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J133" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K133" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C134">
         <v>20060126</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E134" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H134" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="J134" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K134" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C135">
         <v>20060302</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E135" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H135" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J135" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K135" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C136">
         <v>20061112</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E136" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H136" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J136" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K136" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C137">
         <v>20070215</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E137" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H137" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J137" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K137" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="138" spans="1:11">
       <c r="A138" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C138">
         <v>20071120</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H138" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="J138" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K138" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="139" spans="1:11">
       <c r="A139" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C139">
         <v>20070126</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E139" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H139" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J139" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K139" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C140">
         <v>20080302</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E140" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H140" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="J140" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K140" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="141" spans="1:11">
       <c r="A141" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C141">
         <v>20081111</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E141" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H141" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J141" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K141" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C142">
         <v>20090127</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E142" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H142" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J142" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K142" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="143" spans="1:11">
       <c r="A143" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C143">
         <v>20090304</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E143" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H143" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J143" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K143" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="144" spans="1:11">
       <c r="A144" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C144">
         <v>20091115</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E144" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H144" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J144" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K144" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="145" spans="1:11">
       <c r="A145" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C145">
         <v>20100305</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E145" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H145" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J145" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K145" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="146" spans="1:11">
       <c r="A146" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C146">
         <v>20040124</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E146" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H146" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="147" spans="1:11">
       <c r="A147" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C147">
         <v>20031205</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E147" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H147" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="148" spans="1:11">
       <c r="A148" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C148">
         <v>20030905</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E148" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H148" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="149" spans="1:11">
       <c r="A149" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C149">
         <v>20031016</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E149" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H149" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="150" spans="1:11">
       <c r="A150" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C150">
         <v>20170304</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E150" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H150" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="151" spans="1:11">
       <c r="A151" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C151">
         <v>20031102</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E151" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H151" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="152" spans="1:11">
       <c r="A152" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C152">
         <v>20040219</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E152" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H152" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C153">
         <v>20130104</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E153" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H153" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="154" spans="1:11">
       <c r="A154" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C154">
         <v>20130215</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E154" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H154" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="155" spans="1:11">
       <c r="A155" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C155">
         <v>20170203</v>
@@ -7206,36 +7204,36 @@
     </row>
     <row r="156" spans="1:11">
       <c r="A156" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C156">
         <v>20080223</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E156" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G156" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H156" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I156" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="J156" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="K156" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="157" spans="1:11">
       <c r="A157" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C157">
         <v>20151229</v>
@@ -7243,7 +7241,7 @@
     </row>
     <row r="158" spans="1:11">
       <c r="A158" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C158">
         <v>19921218</v>
@@ -7251,17 +7249,17 @@
     </row>
     <row r="159" spans="1:11">
       <c r="A159" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="160" spans="1:11">
       <c r="A160" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C161">
         <v>20171011</v>
@@ -7269,7 +7267,7 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C162">
         <v>20150506</v>
@@ -7277,302 +7275,302 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C164">
         <v>20190514</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E164" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H164" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/product_data/supporting_information/Metadata/EXPOCODE_metadata.xlsx
+++ b/product_data/supporting_information/Metadata/EXPOCODE_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/supporting_information/Metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{CFC6FC85-2397-45B7-9B64-07E227C9A9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88AA65BA-66D6-4270-AEF7-EDAC658F8134}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{CFC6FC85-2397-45B7-9B64-07E227C9A9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06B05E2D-C87B-410E-80E8-24290CA1EB91}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CAC26201-7EA0-4927-9F08-359D20184F1A}"/>
+    <workbookView minimized="1" xWindow="4800" yWindow="2770" windowWidth="14400" windowHeight="7430" xr2:uid="{CAC26201-7EA0-4927-9F08-359D20184F1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="806">
   <si>
     <t>EXPOCODE</t>
   </si>
@@ -2449,6 +2449,9 @@
   </si>
   <si>
     <t>33RR20020105_poc</t>
+  </si>
+  <si>
+    <t>320619930325</t>
   </si>
 </sst>
 </file>
@@ -2491,10 +2494,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2811,14 +2814,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D35B94-FD96-48A2-AA8B-4A61A851D8AF}">
   <dimension ref="A1:L219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="H174" sqref="H174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -2831,7 +2834,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>239</v>
       </c>
       <c r="E1" t="s">
@@ -2866,7 +2869,7 @@
       <c r="C2">
         <v>19850305</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>240</v>
       </c>
       <c r="E2" t="s">
@@ -2898,7 +2901,7 @@
       <c r="C3">
         <v>19860917</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>241</v>
       </c>
       <c r="E3" t="s">
@@ -2927,7 +2930,7 @@
       <c r="C4">
         <v>19880109</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>242</v>
       </c>
       <c r="E4" t="s">
@@ -2956,7 +2959,7 @@
       <c r="C5">
         <v>19921129</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>242</v>
       </c>
       <c r="E5" t="s">
@@ -2988,7 +2991,7 @@
       <c r="C6">
         <v>20011203</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>242</v>
       </c>
       <c r="E6" t="s">
@@ -3020,7 +3023,7 @@
       <c r="C7">
         <v>20040325</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>242</v>
       </c>
       <c r="E7" t="s">
@@ -3052,7 +3055,7 @@
       <c r="C8">
         <v>20080204</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>243</v>
       </c>
       <c r="E8" t="s">
@@ -3084,7 +3087,7 @@
       <c r="C9">
         <v>20080520</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>244</v>
       </c>
       <c r="E9" t="s">
@@ -3116,7 +3119,7 @@
       <c r="C10">
         <v>20100405</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>245</v>
       </c>
       <c r="E10" t="s">
@@ -3148,7 +3151,7 @@
       <c r="C11">
         <v>20100517</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>246</v>
       </c>
       <c r="E11" t="s">
@@ -3180,7 +3183,7 @@
       <c r="C12">
         <v>20120311</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>247</v>
       </c>
       <c r="E12" t="s">
@@ -3215,7 +3218,7 @@
       <c r="C13">
         <v>20131016</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>248</v>
       </c>
       <c r="E13" t="s">
@@ -3250,7 +3253,7 @@
       <c r="C14">
         <v>20170203</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>249</v>
       </c>
       <c r="E14" t="s">
@@ -3282,7 +3285,7 @@
       <c r="C15">
         <v>20190207</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>249</v>
       </c>
       <c r="E15" t="s">
@@ -3317,7 +3320,7 @@
       <c r="C16">
         <v>20150329</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>250</v>
       </c>
       <c r="E16" t="s">
@@ -3352,7 +3355,7 @@
       <c r="C17">
         <v>20160227</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>251</v>
       </c>
       <c r="E17" t="s">
@@ -3387,7 +3390,7 @@
       <c r="C18">
         <v>20160416</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>252</v>
       </c>
       <c r="E18" t="s">
@@ -3422,7 +3425,7 @@
       <c r="C19">
         <v>20160729</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>253</v>
       </c>
       <c r="E19" t="s">
@@ -3454,7 +3457,7 @@
       <c r="C20">
         <v>20180221</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>254</v>
       </c>
       <c r="E20" t="s">
@@ -3489,7 +3492,7 @@
       <c r="C21">
         <v>19910319</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>255</v>
       </c>
       <c r="E21" t="s">
@@ -3521,7 +3524,7 @@
       <c r="C22">
         <v>19911027</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>254</v>
       </c>
       <c r="E22" t="s">
@@ -3553,7 +3556,7 @@
       <c r="C23">
         <v>19920103</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>256</v>
       </c>
       <c r="E23" t="s">
@@ -3576,7 +3579,7 @@
       <c r="C24">
         <v>19930309</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>356</v>
       </c>
       <c r="E24" t="s">
@@ -3605,7 +3608,7 @@
       <c r="C25">
         <v>19930509</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>254</v>
       </c>
       <c r="E25" t="s">
@@ -3637,7 +3640,7 @@
       <c r="C26">
         <v>19931228</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>356</v>
       </c>
       <c r="E26" t="s">
@@ -3663,7 +3666,7 @@
       <c r="C27">
         <v>19940301</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>257</v>
       </c>
       <c r="E27" t="s">
@@ -3695,7 +3698,7 @@
       <c r="C28">
         <v>19950202</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>257</v>
       </c>
       <c r="E28" t="s">
@@ -3727,7 +3730,7 @@
       <c r="C29">
         <v>19950902</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>258</v>
       </c>
       <c r="E29" t="s">
@@ -3759,7 +3762,7 @@
       <c r="C30">
         <v>19960331</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>259</v>
       </c>
       <c r="E30" t="s">
@@ -3791,7 +3794,7 @@
       <c r="C31">
         <v>19980401</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>260</v>
       </c>
       <c r="E31" t="s">
@@ -3820,7 +3823,7 @@
       <c r="C32">
         <v>19990907</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>258</v>
       </c>
       <c r="E32" t="s">
@@ -3852,7 +3855,7 @@
       <c r="C33">
         <v>20010309</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>356</v>
       </c>
       <c r="E33" t="s">
@@ -3881,7 +3884,7 @@
       <c r="C34">
         <v>20011213</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>356</v>
       </c>
       <c r="E34" t="s">
@@ -3913,7 +3916,7 @@
       <c r="C35">
         <v>20020308</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
         <v>356</v>
       </c>
       <c r="E35" t="s">
@@ -3933,7 +3936,7 @@
       <c r="C36">
         <v>20030317</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s">
         <v>357</v>
       </c>
       <c r="G36" t="s">
@@ -3962,7 +3965,7 @@
       <c r="C37">
         <v>20040213</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>255</v>
       </c>
       <c r="E37" t="s">
@@ -3994,7 +3997,7 @@
       <c r="C38">
         <v>20041114</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
         <v>261</v>
       </c>
       <c r="E38" t="s">
@@ -4020,7 +4023,7 @@
       <c r="C39">
         <v>20050217</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" t="s">
         <v>254</v>
       </c>
       <c r="E39" t="s">
@@ -4040,7 +4043,7 @@
       <c r="C40">
         <v>20060312</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" t="s">
         <v>356</v>
       </c>
       <c r="G40" t="s">
@@ -4069,7 +4072,7 @@
       <c r="C41">
         <v>20070220</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" t="s">
         <v>356</v>
       </c>
       <c r="G41" t="s">
@@ -4098,7 +4101,7 @@
       <c r="C42">
         <v>20080127</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" t="s">
         <v>262</v>
       </c>
       <c r="E42" t="s">
@@ -4118,7 +4121,7 @@
       <c r="C43">
         <v>20080420</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" t="s">
         <v>254</v>
       </c>
       <c r="E43" t="s">
@@ -4150,7 +4153,7 @@
       <c r="C44">
         <v>20110206</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" t="s">
         <v>254</v>
       </c>
       <c r="E44" t="s">
@@ -4170,7 +4173,7 @@
       <c r="C45">
         <v>20120212</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" t="s">
         <v>254</v>
       </c>
       <c r="E45" t="s">
@@ -4190,7 +4193,7 @@
       <c r="C46">
         <v>20160312</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" t="s">
         <v>263</v>
       </c>
       <c r="E46" t="s">
@@ -4222,7 +4225,7 @@
       <c r="C47" t="s">
         <v>237</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" t="s">
         <v>264</v>
       </c>
       <c r="G47" t="s">
@@ -4248,7 +4251,7 @@
       <c r="C48">
         <v>19950202</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="1" t="s">
         <v>265</v>
       </c>
       <c r="E48" t="s">
@@ -4277,7 +4280,7 @@
       <c r="C49">
         <v>19951207</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="1" t="s">
         <v>266</v>
       </c>
       <c r="E49" t="s">
@@ -4309,7 +4312,7 @@
       <c r="C50">
         <v>19960512</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="1" t="s">
         <v>267</v>
       </c>
       <c r="E50" t="s">
@@ -4341,7 +4344,7 @@
       <c r="C51">
         <v>19960527</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" t="s">
         <v>268</v>
       </c>
       <c r="E51" t="s">
@@ -4373,7 +4376,7 @@
       <c r="C52">
         <v>19961219</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="1" t="s">
         <v>269</v>
       </c>
       <c r="E52" t="s">
@@ -4405,7 +4408,7 @@
       <c r="C53">
         <v>19990204</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" t="s">
         <v>270</v>
       </c>
       <c r="E53" t="s">
@@ -4431,7 +4434,7 @@
       <c r="C54">
         <v>19990214</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="1" t="s">
         <v>271</v>
       </c>
       <c r="E54" t="s">
@@ -4460,7 +4463,7 @@
       <c r="C55">
         <v>20030830</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" t="s">
         <v>272</v>
       </c>
       <c r="E55" t="s">
@@ -4489,7 +4492,7 @@
       <c r="C56">
         <v>20040128</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="1" t="s">
         <v>272</v>
       </c>
       <c r="E56" t="s">
@@ -4521,7 +4524,7 @@
       <c r="C57">
         <v>20040806</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="1" t="s">
         <v>273</v>
       </c>
       <c r="E57" t="s">
@@ -4553,7 +4556,7 @@
       <c r="C58">
         <v>20050817</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="1" t="s">
         <v>274</v>
       </c>
       <c r="E58" t="s">
@@ -4585,7 +4588,7 @@
       <c r="C59">
         <v>20051214</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="1" t="s">
         <v>274</v>
       </c>
       <c r="E59" t="s">
@@ -4617,7 +4620,7 @@
       <c r="C60">
         <v>20060409</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="1" t="s">
         <v>252</v>
       </c>
       <c r="E60" t="s">
@@ -4649,7 +4652,7 @@
       <c r="C61">
         <v>20100809</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" t="s">
         <v>275</v>
       </c>
       <c r="E61" t="s">
@@ -4681,7 +4684,7 @@
       <c r="C62">
         <v>20101031</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" t="s">
         <v>276</v>
       </c>
       <c r="E62" t="s">
@@ -4713,7 +4716,7 @@
       <c r="C63">
         <v>20120905</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" t="s">
         <v>277</v>
       </c>
       <c r="E63" t="s">
@@ -4745,7 +4748,7 @@
       <c r="C64">
         <v>20120916</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" t="s">
         <v>278</v>
       </c>
       <c r="E64" t="s">
@@ -4777,7 +4780,7 @@
       <c r="C65">
         <v>20130726</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" t="s">
         <v>279</v>
       </c>
       <c r="E65" t="s">
@@ -4800,8 +4803,8 @@
       </c>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66">
-        <v>320619930325</v>
+      <c r="A66" s="2" t="s">
+        <v>805</v>
       </c>
       <c r="B66" t="s">
         <v>224</v>
@@ -4809,7 +4812,7 @@
       <c r="C66">
         <v>19930515</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="1" t="s">
         <v>280</v>
       </c>
       <c r="E66" t="s">
@@ -4838,7 +4841,7 @@
       <c r="C67">
         <v>19961108</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E67" t="s">
@@ -4873,7 +4876,7 @@
       <c r="C68">
         <v>19970211</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="1" t="s">
         <v>282</v>
       </c>
       <c r="E68" t="s">
@@ -4908,7 +4911,7 @@
       <c r="C69">
         <v>19970511</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="1" t="s">
         <v>283</v>
       </c>
       <c r="E69" t="s">
@@ -4943,7 +4946,7 @@
       <c r="C70">
         <v>19971214</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E70" t="s">
@@ -4978,7 +4981,7 @@
       <c r="C71" t="s">
         <v>238</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="1" t="s">
         <v>284</v>
       </c>
       <c r="E71" t="s">
@@ -5010,7 +5013,7 @@
       <c r="C72">
         <v>19990716</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="1" t="s">
         <v>285</v>
       </c>
       <c r="E72" t="s">
@@ -5033,7 +5036,7 @@
       <c r="C73">
         <v>20011026</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="1" t="s">
         <v>285</v>
       </c>
       <c r="E73" t="s">
@@ -5056,7 +5059,7 @@
       <c r="C74">
         <v>20060815</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="1" t="s">
         <v>286</v>
       </c>
       <c r="E74" t="s">
@@ -5088,7 +5091,7 @@
       <c r="C75">
         <v>20030222</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="1" t="s">
         <v>287</v>
       </c>
       <c r="E75" t="s">
@@ -5117,7 +5120,7 @@
       <c r="C76">
         <v>20040101</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E76" t="s">
@@ -5149,7 +5152,7 @@
       <c r="C77">
         <v>20050215</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" s="1" t="s">
         <v>288</v>
       </c>
       <c r="E77" t="s">
@@ -5181,7 +5184,7 @@
       <c r="C78">
         <v>20060202</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E78" t="s">
@@ -5216,7 +5219,7 @@
       <c r="C79">
         <v>20170120</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="1" t="s">
         <v>289</v>
       </c>
       <c r="E79" t="s">
@@ -5236,7 +5239,7 @@
       <c r="C80">
         <v>20160104</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="1" t="s">
         <v>290</v>
       </c>
       <c r="E80" t="s">
@@ -5259,7 +5262,7 @@
       <c r="C81">
         <v>20170614</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" t="s">
         <v>291</v>
       </c>
       <c r="E81" t="s">
@@ -5276,7 +5279,7 @@
       <c r="C82">
         <v>20170817</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="1" t="s">
         <v>292</v>
       </c>
       <c r="E82" t="s">
@@ -5296,7 +5299,7 @@
       <c r="C83">
         <v>20180514</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="1" t="s">
         <v>293</v>
       </c>
       <c r="E83" t="s">
@@ -5316,7 +5319,7 @@
       <c r="C84">
         <v>20140505</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="1" t="s">
         <v>294</v>
       </c>
       <c r="E84" t="s">
@@ -5336,7 +5339,7 @@
       <c r="C85">
         <v>20110423</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="1" t="s">
         <v>295</v>
       </c>
       <c r="E85" t="s">
@@ -5356,7 +5359,7 @@
       <c r="C86">
         <v>19960108</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" s="1" t="s">
         <v>296</v>
       </c>
       <c r="E86" t="s">
@@ -5376,7 +5379,7 @@
       <c r="C87">
         <v>19980110</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="1" t="s">
         <v>296</v>
       </c>
       <c r="E87" t="s">
@@ -5396,7 +5399,7 @@
       <c r="C88">
         <v>19980220</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="1" t="s">
         <v>297</v>
       </c>
       <c r="E88" t="s">
@@ -5425,7 +5428,7 @@
       <c r="C89">
         <v>19990212</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="1" t="s">
         <v>280</v>
       </c>
       <c r="E89" t="s">
@@ -5457,7 +5460,7 @@
       <c r="C90">
         <v>20000201</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="1" t="s">
         <v>298</v>
       </c>
       <c r="E90" t="s">
@@ -5489,7 +5492,7 @@
       <c r="C91">
         <v>20010131</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="1" t="s">
         <v>280</v>
       </c>
       <c r="E91" t="s">
@@ -5521,7 +5524,7 @@
       <c r="C92">
         <v>20020201</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="1" t="s">
         <v>280</v>
       </c>
       <c r="E92" t="s">
@@ -5550,7 +5553,7 @@
       <c r="C93">
         <v>20030208</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="1" t="s">
         <v>283</v>
       </c>
       <c r="E93" t="s">
@@ -5579,7 +5582,7 @@
       <c r="C94">
         <v>20040207</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" s="1" t="s">
         <v>283</v>
       </c>
       <c r="E94" t="s">
@@ -5608,7 +5611,7 @@
       <c r="C95">
         <v>20040324</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D95" s="1" t="s">
         <v>299</v>
       </c>
       <c r="E95" t="s">
@@ -5634,7 +5637,7 @@
       <c r="C96">
         <v>20050206</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" s="1" t="s">
         <v>283</v>
       </c>
       <c r="E96" t="s">
@@ -5663,7 +5666,7 @@
       <c r="C97">
         <v>20060209</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D97" s="1" t="s">
         <v>300</v>
       </c>
       <c r="E97" t="s">
@@ -5692,7 +5695,7 @@
       <c r="C98">
         <v>20070211</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" s="1" t="s">
         <v>283</v>
       </c>
       <c r="E98" t="s">
@@ -5724,7 +5727,7 @@
       <c r="C99">
         <v>20080209</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="1" t="s">
         <v>300</v>
       </c>
       <c r="E99" t="s">
@@ -5753,7 +5756,7 @@
       <c r="C100">
         <v>20090206</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" t="s">
         <v>301</v>
       </c>
       <c r="E100" t="s">
@@ -5782,7 +5785,7 @@
       <c r="C101">
         <v>20100207</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" t="s">
         <v>301</v>
       </c>
       <c r="E101" t="s">
@@ -5811,7 +5814,7 @@
       <c r="C102">
         <v>20110107</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" t="s">
         <v>301</v>
       </c>
       <c r="E102" t="s">
@@ -5840,7 +5843,7 @@
       <c r="C103">
         <v>20120207</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" t="s">
         <v>301</v>
       </c>
       <c r="E103" t="s">
@@ -5869,7 +5872,7 @@
       <c r="C104">
         <v>20130207</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" t="s">
         <v>301</v>
       </c>
       <c r="E104" t="s">
@@ -5898,7 +5901,7 @@
       <c r="C105">
         <v>20140209</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" t="s">
         <v>301</v>
       </c>
       <c r="E105" t="s">
@@ -5927,7 +5930,7 @@
       <c r="C106">
         <v>20150208</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" t="s">
         <v>302</v>
       </c>
       <c r="E106" t="s">
@@ -5956,7 +5959,7 @@
       <c r="C107">
         <v>20160217</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D107" s="1" t="s">
         <v>283</v>
       </c>
       <c r="E107" t="s">
@@ -5985,7 +5988,7 @@
       <c r="C108">
         <v>20170210</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D108" s="1" t="s">
         <v>283</v>
       </c>
       <c r="E108" t="s">
@@ -6020,7 +6023,7 @@
       <c r="C109">
         <v>19911121</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D109" s="1" t="s">
         <v>300</v>
       </c>
       <c r="E109" t="s">
@@ -6049,7 +6052,7 @@
       <c r="C110">
         <v>19930208</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D110" s="1" t="s">
         <v>300</v>
       </c>
       <c r="E110" t="s">
@@ -6078,7 +6081,7 @@
       <c r="C111">
         <v>19930924</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D111" s="1" t="s">
         <v>300</v>
       </c>
       <c r="E111" t="s">
@@ -6107,7 +6110,7 @@
       <c r="C112">
         <v>19940207</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D112" s="1" t="s">
         <v>280</v>
       </c>
       <c r="E112" t="s">
@@ -6136,7 +6139,7 @@
       <c r="C113">
         <v>19950208</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D113" s="1" t="s">
         <v>285</v>
       </c>
       <c r="E113" t="s">
@@ -6165,7 +6168,7 @@
       <c r="C114">
         <v>19960210</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D114" s="1" t="s">
         <v>298</v>
       </c>
       <c r="E114" t="s">
@@ -6194,7 +6197,7 @@
       <c r="C115">
         <v>19970213</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D115" s="1" t="s">
         <v>280</v>
       </c>
       <c r="E115" t="s">
@@ -6223,7 +6226,7 @@
       <c r="C116">
         <v>19971124</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" t="s">
         <v>303</v>
       </c>
       <c r="E116" t="s">
@@ -6255,7 +6258,7 @@
       <c r="C117">
         <v>19980103</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" t="s">
         <v>304</v>
       </c>
       <c r="E117" t="s">
@@ -6284,7 +6287,7 @@
       <c r="C118">
         <v>19980208</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D118" s="1" t="s">
         <v>305</v>
       </c>
       <c r="E118" t="s">
@@ -6313,7 +6316,7 @@
       <c r="C119">
         <v>19980319</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D119" s="1" t="s">
         <v>306</v>
       </c>
       <c r="E119" t="s">
@@ -6342,7 +6345,7 @@
       <c r="C120">
         <v>20020214</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D120" t="s">
         <v>307</v>
       </c>
       <c r="E120" t="s">
@@ -6374,7 +6377,7 @@
       <c r="C121">
         <v>20050219</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D121" t="s">
         <v>308</v>
       </c>
       <c r="E121" t="s">
@@ -6394,7 +6397,7 @@
       <c r="C122">
         <v>20070317</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D122" t="s">
         <v>309</v>
       </c>
       <c r="E122" t="s">
@@ -6414,7 +6417,7 @@
       <c r="C123">
         <v>20080317</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D123" t="s">
         <v>310</v>
       </c>
       <c r="E123" t="s">
@@ -6449,7 +6452,7 @@
       <c r="C124">
         <v>20160306</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D124" s="1" t="s">
         <v>293</v>
       </c>
       <c r="E124" t="s">
@@ -6478,7 +6481,7 @@
       <c r="C125">
         <v>20021104</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D125" t="s">
         <v>256</v>
       </c>
       <c r="E125" t="s">
@@ -6504,7 +6507,7 @@
       <c r="C126">
         <v>20030127</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D126" t="s">
         <v>256</v>
       </c>
       <c r="E126" t="s">
@@ -6530,7 +6533,7 @@
       <c r="C127">
         <v>20030304</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D127" t="s">
         <v>256</v>
       </c>
       <c r="E127" t="s">
@@ -6556,7 +6559,7 @@
       <c r="C128">
         <v>20031111</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D128" t="s">
         <v>256</v>
       </c>
       <c r="E128" t="s">
@@ -6582,7 +6585,7 @@
       <c r="C129">
         <v>20040101</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D129" t="s">
         <v>256</v>
       </c>
       <c r="E129" t="s">
@@ -6608,7 +6611,7 @@
       <c r="C130">
         <v>20040215</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D130" t="s">
         <v>256</v>
       </c>
       <c r="E130" t="s">
@@ -6634,7 +6637,7 @@
       <c r="C131">
         <v>20040304</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D131" t="s">
         <v>256</v>
       </c>
       <c r="E131" t="s">
@@ -6660,7 +6663,7 @@
       <c r="C132">
         <v>20041109</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D132" t="s">
         <v>256</v>
       </c>
       <c r="E132" t="s">
@@ -6686,7 +6689,7 @@
       <c r="C133">
         <v>20051108</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D133" t="s">
         <v>256</v>
       </c>
       <c r="E133" t="s">
@@ -6712,7 +6715,7 @@
       <c r="C134">
         <v>20060126</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D134" t="s">
         <v>256</v>
       </c>
       <c r="E134" t="s">
@@ -6738,7 +6741,7 @@
       <c r="C135">
         <v>20060302</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D135" t="s">
         <v>256</v>
       </c>
       <c r="E135" t="s">
@@ -6764,7 +6767,7 @@
       <c r="C136">
         <v>20061112</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D136" t="s">
         <v>256</v>
       </c>
       <c r="E136" t="s">
@@ -6790,7 +6793,7 @@
       <c r="C137">
         <v>20070215</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D137" t="s">
         <v>256</v>
       </c>
       <c r="E137" t="s">
@@ -6816,7 +6819,7 @@
       <c r="C138">
         <v>20071120</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D138" t="s">
         <v>256</v>
       </c>
       <c r="E138" t="s">
@@ -6842,7 +6845,7 @@
       <c r="C139">
         <v>20070126</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="D139" t="s">
         <v>256</v>
       </c>
       <c r="E139" t="s">
@@ -6868,7 +6871,7 @@
       <c r="C140">
         <v>20080302</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D140" t="s">
         <v>256</v>
       </c>
       <c r="E140" t="s">
@@ -6894,7 +6897,7 @@
       <c r="C141">
         <v>20081111</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="D141" t="s">
         <v>256</v>
       </c>
       <c r="E141" t="s">
@@ -6920,7 +6923,7 @@
       <c r="C142">
         <v>20090127</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="D142" t="s">
         <v>256</v>
       </c>
       <c r="E142" t="s">
@@ -6946,7 +6949,7 @@
       <c r="C143">
         <v>20090304</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D143" t="s">
         <v>256</v>
       </c>
       <c r="E143" t="s">
@@ -6972,7 +6975,7 @@
       <c r="C144">
         <v>20091115</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D144" t="s">
         <v>256</v>
       </c>
       <c r="E144" t="s">
@@ -6998,7 +7001,7 @@
       <c r="C145">
         <v>20100305</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D145" t="s">
         <v>256</v>
       </c>
       <c r="E145" t="s">
@@ -7024,7 +7027,7 @@
       <c r="C146">
         <v>20040124</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="D146" t="s">
         <v>358</v>
       </c>
       <c r="E146" t="s">
@@ -7044,7 +7047,7 @@
       <c r="C147">
         <v>20031205</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="D147" t="s">
         <v>311</v>
       </c>
       <c r="E147" t="s">
@@ -7064,7 +7067,7 @@
       <c r="C148">
         <v>20030905</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="D148" t="s">
         <v>358</v>
       </c>
       <c r="E148" t="s">
@@ -7084,7 +7087,7 @@
       <c r="C149">
         <v>20031016</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D149" t="s">
         <v>312</v>
       </c>
       <c r="E149" t="s">
@@ -7104,7 +7107,7 @@
       <c r="C150">
         <v>20170304</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D150" t="s">
         <v>313</v>
       </c>
       <c r="E150" t="s">
@@ -7124,7 +7127,7 @@
       <c r="C151">
         <v>20031102</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D151" t="s">
         <v>314</v>
       </c>
       <c r="E151" t="s">
@@ -7144,7 +7147,7 @@
       <c r="C152">
         <v>20040219</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D152" t="s">
         <v>358</v>
       </c>
       <c r="E152" t="s">
@@ -7164,7 +7167,7 @@
       <c r="C153">
         <v>20130104</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D153" t="s">
         <v>315</v>
       </c>
       <c r="E153" t="s">
@@ -7184,7 +7187,7 @@
       <c r="C154">
         <v>20130215</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="D154" t="s">
         <v>316</v>
       </c>
       <c r="E154" t="s">
@@ -7209,7 +7212,7 @@
       <c r="C156">
         <v>20080223</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D156" t="s">
         <v>317</v>
       </c>
       <c r="E156" t="s">
@@ -7288,7 +7291,7 @@
       <c r="C164">
         <v>20190514</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="D164" t="s">
         <v>318</v>
       </c>
       <c r="E164" t="s">
